--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998892.376715434</v>
+        <v>2116814.731890538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>278692.0725916867</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5295038.413908007</v>
+        <v>5784329.026391996</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.5734645353205</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>108.7143205018716</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>27.81938947325714</v>
       </c>
       <c r="X4" t="n">
-        <v>13.51446909089625</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>377.8324403927052</v>
       </c>
       <c r="E5" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6379250432767</v>
+        <v>28.64436039545509</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1136,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>356.4680155081588</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>85.70538671876619</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>28.85560178398625</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>31.28831241118253</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>192.8564613256553</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.10461178738982</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>177.7336819613855</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884117</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>239.393412107603</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>31.24391673888159</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>13.0131344328856</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>26.41040541581631</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>41.77118486549507</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>244.5630175510437</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695736</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2536,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>240.1946735691302</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>5.990622819018409</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2770,16 +2772,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494593</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719937</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884104</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>159.6574681744382</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3664,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>3.423392126084496</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>190.9951080593931</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>104.0638905215414</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170487</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>81.49380289235384</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>236.7304071971274</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112153</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4034,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>123.2901323038664</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.095648603258</v>
+        <v>1030.653802879758</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.953175786681</v>
+        <v>602.0721286170262</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0433909611256</v>
+        <v>173.4904543542946</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>143.7561135529938</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.540662806093</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>1348.380717347871</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>2009.22077188965</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>2009.22077188965</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>2670.060826431428</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>2047.406523133708</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>2032.304463753423</v>
+        <v>1057.158688984204</v>
       </c>
       <c r="Y2" t="n">
-        <v>2028.058744093481</v>
+        <v>1052.912969324262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.33055796836</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425082</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>520.1615407797999</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>486.0594720036273</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>104.4105423140261</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>74.67620151272533</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1773.889698385744</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1354.747234965054</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>946.4611112647077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1364.55131298634</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1258.094851822983</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1163.004562969536</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1068.88414829649</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>985.5003099126513</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>900.1152201788352</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>858.3795679950476</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>884.4432411555052</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>884.4432411555052</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>884.4432411555052</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>884.4432411555052</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>884.4432411555052</v>
       </c>
       <c r="N6" t="n">
-        <v>394.9608689238808</v>
+        <v>1508.544025200285</v>
       </c>
       <c r="O6" t="n">
-        <v>1055.800923465659</v>
+        <v>2132.644809245064</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>2404.446551379517</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>2404.446551379517</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2458.16389192224</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2327.985248252841</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2151.64870125281</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1952.531183314809</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1767.208429048003</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1612.340993286883</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1485.855214066104</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255756</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>2510.819457729425</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>2232.38645698253</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>576.9744364820456</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>138.8319636654689</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4808,16 +4810,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2190.771296621483</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1830.702594087989</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X8" t="n">
-        <v>1411.5601306673</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1003.274006966953</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1605.602207829152</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>539.7684486257606</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>370.0104448764978</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>193.303390838254</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2243.378579212773</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1805.236106396196</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1369.326321570641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.52181518109</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>746.6543855902975</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>350.7514028354357</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862318</v>
+        <v>1185.101694793614</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374606</v>
+        <v>2260.161661046473</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374606</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374606</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374606</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2502.600881895756</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.378579212773</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2243.378579212773</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2243.378579212773</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2243.378579212773</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2243.378579212773</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.1900728172352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1087.481917853825</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1087.481917853825</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1087.481917853825</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>906.6224367337088</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169337</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184565</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>221.7176746309499</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677761</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677761</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2451.623182457402</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2173.190181710508</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1886.234673580938</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1614.20826916723</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>732.1294612527596</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>732.1294612527596</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>732.1294612527596</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>298.3547164110548</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.54318902963761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1880.509478614941</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M14" t="n">
-        <v>2090.667132127229</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2090.667132127229</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2090.667132127229</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2586.252755711919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2327.030453028936</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>1964.413502962762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1559.558048373796</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1140.415584953106</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>732.1294612527596</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.1900728172352</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>1087.481917853825</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L15" t="n">
-        <v>1087.481917853825</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="M15" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N15" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1087.481917853825</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C16" t="n">
-        <v>765.6202370743899</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D16" t="n">
-        <v>599.7422442759126</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E16" t="n">
-        <v>429.9842405266499</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>253.2771864884061</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>87.68591151423377</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677761</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321676</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5826,22 +5828,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O21" t="n">
         <v>1107.588885023173</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.634124109936</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>885.0724125931612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
         <v>842.8792965674086</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2281.246080724681</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1994.290572595111</v>
+        <v>1926.156830648851</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.264168181403</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X22" t="n">
-        <v>1476.872413514815</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y22" t="n">
-        <v>1249.452742828923</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="23">
@@ -6066,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1484.372422485877</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1238.98066781929</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1011.560997133398</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.710185817961</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>926.148474301186</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>760.2704815027087</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>590.5124777534459</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>413.8054237152021</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>248.2141487410298</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>108.3119744314043</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2035.366634303136</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1763.340229889428</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1517.94847522284</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y28" t="n">
-        <v>1290.528804536948</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6704,19 +6706,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6901,7 +6903,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1209.575145798642</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,40 +6949,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1176.997895781659</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1004.436184264884</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>838.5581914664062</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>668.8001877171434</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>492.0931336788997</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1368.816514500646</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7156,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>926.893353805728</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="L38" t="n">
-        <v>2001.953320058587</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M38" t="n">
-        <v>3159.001155269138</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N38" t="n">
-        <v>4284.732138705585</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7230,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7251,25 +7253,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>864.7097725347917</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>692.1480610180166</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>526.2700682195393</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E40" t="n">
-        <v>356.5120644702766</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>105.7188121153094</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>105.7188121153094</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2366.754729896431</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2088.321729149536</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1801.366221019967</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1529.339816606258</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1283.948061939671</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.528391253779</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>888.514067960988</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>450.3715951444113</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>450.3715951444113</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>450.3715951444113</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>450.3715951444113</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862319</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862319</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N41" t="n">
-        <v>1185.945282862319</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127664</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880287</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155898</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2547.097680155898</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.242225566932</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>1723.099762146242</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.813638445896</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>4995.869235444639</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>5049.586575987362</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>4919.407932317964</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>4743.071385317932</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>765.6202370743899</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>593.0585255576149</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>427.1805327591376</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>257.4225290098748</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>80.71547497163104</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677763</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.858526479269</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y43" t="n">
-        <v>957.4388557933771</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>584.7949670178632</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>345.6733435864214</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>345.6733435864214</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>345.6733435864214</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>345.6733435864214</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677763</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M44" t="n">
-        <v>56.12639965677763</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219836</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>2243.378579212774</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>1838.523124623807</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1419.380661203118</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>1011.094537502771</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>907.6291872886236</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.6224367337088</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>734.0607252169337</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>568.1827324184565</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>398.4247286691938</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>221.71767463095</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1843.278885218884</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.252480805175</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1325.860726138588</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.441055452696</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>640.5448952297621</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8145,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8216,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>345.0097498941942</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>274.5472142772251</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671639</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8456,19 +8458,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>251.0005682471273</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>212.2804580932197</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,16 +9005,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>571.1719812251592</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,22 +10354,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>832.9621348837863</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>383.1431497629746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>505.9401914193697</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>236.5805360676324</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.20415515853617</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>184.1953431872813</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.2592358276476</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>212.1323395461516</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>141.6500182959538</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>122.4480280049975</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>39.52293549723009</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>29.11146680044121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.782726914053</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.277894049992369</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>84.34995760698692</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>52.42554389793619</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>293.3199625414273</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>197.0306408912835</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>499785.4819151369</v>
+        <v>494796.88109207</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>499785.4819151369</v>
+        <v>499024.3218998284</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331632.543282299</v>
+        <v>501049.572083037</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331632.543282299</v>
+        <v>501049.572083037</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501049.5720830371</v>
+        <v>501049.5720830372</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331632.5432822991</v>
+        <v>501049.5720830371</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331632.5432822991</v>
+        <v>501049.5720830371</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>455725.2219068472</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="E2" t="n">
-        <v>296407.1037349764</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="H2" t="n">
         <v>447828.9465167494</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="J2" t="n">
-        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
         <v>447828.9465167496</v>
@@ -26344,16 +26346,16 @@
         <v>447828.9465167495</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="N2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="O2" t="n">
-        <v>296407.1037349764</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="P2" t="n">
-        <v>296407.1037349764</v>
+        <v>447828.9465167495</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045611</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340718</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130757.3002320199</v>
+        <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>130757.3002320199</v>
+        <v>138489.2977955545</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18323.4193897997</v>
+        <v>27684.07875020259</v>
       </c>
       <c r="F4" t="n">
-        <v>18323.4193897997</v>
+        <v>27684.07875020259</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020259</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26445,7 +26447,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="M4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18323.4193897997</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="P4" t="n">
-        <v>18323.4193897997</v>
+        <v>27684.07875020267</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27055.69852902481</v>
+        <v>72676.74664945295</v>
       </c>
       <c r="C6" t="n">
-        <v>250755.3971130697</v>
+        <v>178691.9424082737</v>
       </c>
       <c r="D6" t="n">
-        <v>250755.3971130697</v>
+        <v>239227.8015630873</v>
       </c>
       <c r="E6" t="n">
-        <v>225256.6240055696</v>
+        <v>160071.5199397046</v>
       </c>
       <c r="F6" t="n">
-        <v>235427.6206060256</v>
+        <v>342426.6291607543</v>
       </c>
       <c r="G6" t="n">
-        <v>184367.1522146449</v>
+        <v>342426.6291607544</v>
       </c>
       <c r="H6" t="n">
+        <v>342426.6291607543</v>
+      </c>
+      <c r="I6" t="n">
+        <v>342426.6291607543</v>
+      </c>
+      <c r="J6" t="n">
+        <v>231412.1638157642</v>
+      </c>
+      <c r="K6" t="n">
+        <v>289380.7745219818</v>
+      </c>
+      <c r="L6" t="n">
+        <v>333034.3274341322</v>
+      </c>
+      <c r="M6" t="n">
+        <v>190226.4582227667</v>
+      </c>
+      <c r="N6" t="n">
+        <v>342426.6291607543</v>
+      </c>
+      <c r="O6" t="n">
+        <v>342426.6291607543</v>
+      </c>
+      <c r="P6" t="n">
         <v>342426.6291607544</v>
-      </c>
-      <c r="I6" t="n">
-        <v>342426.6291607544</v>
-      </c>
-      <c r="J6" t="n">
-        <v>167775.2804430482</v>
-      </c>
-      <c r="K6" t="n">
-        <v>342426.6291607544</v>
-      </c>
-      <c r="L6" t="n">
-        <v>342426.6291607543</v>
-      </c>
-      <c r="M6" t="n">
-        <v>333937.5474574137</v>
-      </c>
-      <c r="N6" t="n">
-        <v>342426.6291607542</v>
-      </c>
-      <c r="O6" t="n">
-        <v>235427.6206060257</v>
-      </c>
-      <c r="P6" t="n">
-        <v>235427.6206060257</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.4631102447382</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>314.8744347930127</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,19 +27432,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>241.4867508963142</v>
       </c>
       <c r="X4" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>53.71824658459474</v>
       </c>
       <c r="E5" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>122.4480280049972</v>
+        <v>255.4415926528187</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>44.33888453491824</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>329.2456520677162</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.3636110865063</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>212.1323395461467</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>640.5448952297621</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>345.0097498941942</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>274.5472142772251</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671639</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,19 +35178,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>251.0005682471273</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645545</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>212.2804580932197</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>571.1719812251592</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35886,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36844,16 +36846,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37072,22 +37074,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>832.9621348837863</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37555,16 +37557,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>383.1431497629746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>505.9401914193697</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116814.731890538</v>
+        <v>2116289.549521505</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916867</v>
+        <v>278692.0725916869</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
+        <v>45.77764296561923</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E2" t="n">
-        <v>29.43699739328775</v>
-      </c>
       <c r="F2" t="n">
-        <v>108.7143205018716</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -819,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>142.0902352657462</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.81938947325714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>162.5888681272536</v>
       </c>
       <c r="D5" t="n">
-        <v>377.8324403927052</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -1104,22 +1104,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>28.64436039545509</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>138.8026691122298</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1141,16 +1141,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>167.095030781464</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>85.70538671876619</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T10" t="n">
-        <v>31.28831241118253</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869773</v>
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800139</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556928</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1578,22 +1578,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>177.7336819613855</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.0131344328856</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2083,10 +2083,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135112</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,10 +2298,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>244.5630175510437</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695736</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>240.1946735691302</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>81.01098805494593</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884104</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738441</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>159.6574681744382</v>
+        <v>163.9353622244354</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.423392126084496</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800052</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>81.49380289235384</v>
+        <v>161.6379250432722</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112153</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573301</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682068</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1030.653802879758</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>602.0721286170262</v>
+        <v>822.1393557439874</v>
       </c>
       <c r="D2" t="n">
-        <v>173.4904543542946</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>143.7561135529938</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1057.158688984204</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.912969324262</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="W4" t="n">
-        <v>698.5737126730747</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="X4" t="n">
-        <v>453.1819580064872</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.7622873205955</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>520.1615407797999</v>
+        <v>300.0943136528363</v>
       </c>
       <c r="C5" t="n">
-        <v>486.0594720036273</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>104.4105423140261</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>74.67620151272533</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726459</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726459</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726459</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657693</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>2178.74515297471</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>2178.74515297471</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="W5" t="n">
-        <v>1773.889698385744</v>
+        <v>1553.82247125878</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.747234965054</v>
+        <v>1134.680007838091</v>
       </c>
       <c r="Y5" t="n">
-        <v>946.4611112647077</v>
+        <v>726.3938841377441</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1364.55131298634</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>1258.094851822983</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>1163.004562969536</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>1068.88414829649</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>985.5003099126513</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>900.1152201788352</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>858.3795679950476</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>884.4432411555052</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>884.4432411555052</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>884.4432411555052</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>884.4432411555052</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>884.4432411555052</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1508.544025200285</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>2132.644809245064</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.446551379517</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>2404.446551379517</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>2521.619329473856</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>2458.16389192224</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>2327.985248252841</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>2151.64870125281</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1952.531183314809</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>1767.208429048003</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>1612.340993286883</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>1485.855214066104</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,73 +4701,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
         <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255756</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413401</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2254.322061757681</v>
       </c>
       <c r="U7" t="n">
-        <v>2095.08069305568</v>
+        <v>1975.889061010786</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1688.933552881217</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1688.933552881217</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
         <v>1321.309165920346</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>1415.517618276921</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>977.3751454603448</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>541.4653606347892</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>511.7310198334885</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4810,16 +4810,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1954.407975719776</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4840,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2306.628825816691</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2220.057728120968</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7523231022661</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>783.1906115854911</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>2457.797280463905</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2179.364279717011</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1892.408771587441</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1620.382367173733</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1374.990612507145</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1147.570941821253</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>350.7514028354357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.101694793614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2260.161661046473</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3417.209496257024</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
@@ -5071,13 +5071,13 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
@@ -5086,7 +5086,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.441008084184</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>842.8792965674086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
         <v>842.8792965674086</v>
@@ -5208,43 +5208,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955475</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113119</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2697.502628878947</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2451.623182457402</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>2173.190181710508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V13" t="n">
-        <v>1886.234673580938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1614.20826916723</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1434.679297489062</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1207.259626803171</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5281,10 +5281,10 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>1431.851786213077</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M14" t="n">
         <v>2588.899621423628</v>
@@ -5323,7 +5323,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1082.867562242341</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1004.611946844417</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>832.0502353276421</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1196.430565563404</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5503,28 +5503,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937597</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769847</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.8971520785074</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292446</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5922,40 +5922,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176944</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755399</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008504</v>
       </c>
       <c r="V22" t="n">
-        <v>1926.156830648851</v>
+        <v>1726.993304878935</v>
       </c>
       <c r="W22" t="n">
-        <v>1654.13042623514</v>
+        <v>1454.966900465226</v>
       </c>
       <c r="X22" t="n">
-        <v>1408.738671568553</v>
+        <v>1209.575145798639</v>
       </c>
       <c r="Y22" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127469</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1484.372422485877</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.98066781929</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1011.560997133398</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6472,16 +6472,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6539,25 +6539,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740236</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6949,40 +6949,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6995,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1176.997895781659</v>
+        <v>952.7568773477158</v>
       </c>
       <c r="C37" t="n">
-        <v>1004.436184264884</v>
+        <v>780.1951658309407</v>
       </c>
       <c r="D37" t="n">
-        <v>838.5581914664062</v>
+        <v>614.3171730324634</v>
       </c>
       <c r="E37" t="n">
-        <v>668.8001877171434</v>
+        <v>444.5591692832006</v>
       </c>
       <c r="F37" t="n">
-        <v>492.0931336788997</v>
+        <v>267.8521152449568</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1368.816514500646</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>306.1208027766281</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987179</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>448.0171411277256</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>271.3100870894817</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>105.7188121153094</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>105.7188121153094</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.023562068816</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321675</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532226</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968673</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7560,58 +7560,58 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354647</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066003</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745614</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T43" t="n">
-        <v>2455.944287558408</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U43" t="n">
-        <v>2177.511286811513</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V43" t="n">
-        <v>1890.555778681944</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.529374268236</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1373.137619601648</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
         <v>1373.137619601648</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7648,52 +7648,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.023562068816</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321675</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532226</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968673</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878937</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465229</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798641</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611206</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684641</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>274.5472142772251</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671639</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,19 +8458,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>251.0005682471273</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,16 +8698,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8929,13 +8929,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>531.8762684426497</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10366,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>205.9191540463116</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>65.20415515853617</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.1323395461516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>135.3636110865102</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.52293549723009</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>29.11146680044121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>160.7958207444128</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.277894049992369</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>84.34995760698692</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>161.9268490649754</v>
+        <v>81.78272691405712</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>197.1718905122121</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501049.572083037</v>
+        <v>501049.5720830371</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501049.5720830371</v>
+        <v>501049.572083037</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501049.5720830372</v>
+        <v>501049.5720830371</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>501049.5720830371</v>
+        <v>501049.572083037</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501049.5720830371</v>
+        <v>501049.572083037</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>455725.2219068474</v>
+      </c>
+      <c r="C2" t="n">
         <v>455725.2219068473</v>
       </c>
-      <c r="C2" t="n">
-        <v>455725.2219068472</v>
-      </c>
       <c r="D2" t="n">
-        <v>455725.2219068474</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="K2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="L2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="L2" t="n">
-        <v>447828.9465167495</v>
       </c>
       <c r="M2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="P2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998259</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877266</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662217</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>138489.2977955545</v>
+        <v>138489.2977955547</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>27684.07875020259</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020259</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020264</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020259</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26447,19 +26447,19 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020262</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72676.74664945295</v>
+        <v>72676.74664945301</v>
       </c>
       <c r="C6" t="n">
-        <v>178691.9424082737</v>
+        <v>178691.9424082738</v>
       </c>
       <c r="D6" t="n">
-        <v>239227.8015630873</v>
+        <v>239227.8015630869</v>
       </c>
       <c r="E6" t="n">
-        <v>160071.5199397046</v>
+        <v>160048.2956003218</v>
       </c>
       <c r="F6" t="n">
-        <v>342426.6291607543</v>
+        <v>342403.4048213717</v>
       </c>
       <c r="G6" t="n">
-        <v>342426.6291607544</v>
+        <v>342403.4048213717</v>
       </c>
       <c r="H6" t="n">
-        <v>342426.6291607543</v>
+        <v>342403.4048213717</v>
       </c>
       <c r="I6" t="n">
-        <v>342426.6291607543</v>
+        <v>342403.4048213717</v>
       </c>
       <c r="J6" t="n">
-        <v>231412.1638157642</v>
+        <v>231388.9394763816</v>
       </c>
       <c r="K6" t="n">
-        <v>289380.7745219818</v>
+        <v>289357.5501825992</v>
       </c>
       <c r="L6" t="n">
-        <v>333034.3274341322</v>
+        <v>333011.1030947494</v>
       </c>
       <c r="M6" t="n">
-        <v>190226.4582227667</v>
+        <v>190203.2338833841</v>
       </c>
       <c r="N6" t="n">
-        <v>342426.6291607543</v>
+        <v>342403.4048213718</v>
       </c>
       <c r="O6" t="n">
-        <v>342426.6291607543</v>
+        <v>342403.4048213716</v>
       </c>
       <c r="P6" t="n">
-        <v>342426.6291607544</v>
+        <v>342403.4048213717</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768879</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>385.7730440116807</v>
       </c>
       <c r="E2" t="n">
+        <v>5.14113987318342</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>314.8744347930127</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27444,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>15.55871974923707</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>241.4867508963142</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>271.1721799611573</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>53.71824658459474</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>255.4415926528187</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>104.1351680076919</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>256.4937245134203</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>329.2456520677162</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T10" t="n">
-        <v>212.1323395461467</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.078105676253012e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.523773559098237e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.250036804665917e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-2.901813727022156e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -30158,7 +30158,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-3.673001693637275e-12</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.097447917642177e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-3.673001693637275e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30702,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30908,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-8.459501298696932e-13</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611206</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684641</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>274.5472142772251</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671639</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821543</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>251.0005682471273</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35576,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645545</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35649,13 +35649,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>531.8762684426497</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955965</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,19 +36840,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37086,10 +37086,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>205.9191540463116</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907586</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
